--- a/data/pca/factorExposure/factorExposure_2010-02-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01582519633313707</v>
+        <v>0.0170359752952659</v>
       </c>
       <c r="C2">
-        <v>0.0008204007874196392</v>
+        <v>0.0009110901173039249</v>
       </c>
       <c r="D2">
-        <v>0.005999725142833684</v>
+        <v>0.007241106325329058</v>
       </c>
       <c r="E2">
-        <v>-0.01813070977652687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-7.124780536690163e-05</v>
+      </c>
+      <c r="F2">
+        <v>-0.009412043143665994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1264903128412146</v>
+        <v>0.09368344871075064</v>
       </c>
       <c r="C4">
-        <v>0.04741576033842235</v>
+        <v>0.01557224344957128</v>
       </c>
       <c r="D4">
-        <v>0.03650704656397245</v>
+        <v>0.08378987032811169</v>
       </c>
       <c r="E4">
-        <v>0.01195133051979306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02945727285883959</v>
+      </c>
+      <c r="F4">
+        <v>0.02770748848505664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1152408002530361</v>
+        <v>0.1565491330402883</v>
       </c>
       <c r="C6">
-        <v>-0.03185834102012954</v>
+        <v>0.02474537598040055</v>
       </c>
       <c r="D6">
-        <v>0.004089745150380126</v>
+        <v>-0.0226494677581897</v>
       </c>
       <c r="E6">
-        <v>-0.008160887939934738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01122956484899943</v>
+      </c>
+      <c r="F6">
+        <v>0.05198434484992603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07337985150971309</v>
+        <v>0.05955425509245923</v>
       </c>
       <c r="C7">
-        <v>0.02782507414279226</v>
+        <v>-0.0009413432196024974</v>
       </c>
       <c r="D7">
-        <v>0.0518765395694535</v>
+        <v>0.05198668651231328</v>
       </c>
       <c r="E7">
-        <v>-0.03424079461801779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01348299681135451</v>
+      </c>
+      <c r="F7">
+        <v>0.04340372273339664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05635187490637512</v>
+        <v>0.05865339364461688</v>
       </c>
       <c r="C8">
-        <v>0.01096061531079677</v>
+        <v>-0.01355166928853939</v>
       </c>
       <c r="D8">
-        <v>0.0231218568681778</v>
+        <v>0.03151337318485772</v>
       </c>
       <c r="E8">
-        <v>-0.02334495051021907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0157369648504458</v>
+      </c>
+      <c r="F8">
+        <v>-0.03202473253009498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.09720463602437041</v>
+        <v>0.07183302447565452</v>
       </c>
       <c r="C9">
-        <v>0.04865730642897118</v>
+        <v>0.01149832340863802</v>
       </c>
       <c r="D9">
-        <v>0.01400563548624544</v>
+        <v>0.08462041933941193</v>
       </c>
       <c r="E9">
-        <v>-0.00396168135679965</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0241688608180636</v>
+      </c>
+      <c r="F9">
+        <v>0.04762522696052335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06293661993750328</v>
+        <v>0.09556695678359058</v>
       </c>
       <c r="C10">
-        <v>-0.17851929752957</v>
+        <v>0.01846030132049978</v>
       </c>
       <c r="D10">
-        <v>-0.06958954447390597</v>
+        <v>-0.1704159363577924</v>
       </c>
       <c r="E10">
-        <v>-0.02324354451903407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.038906402341687</v>
+      </c>
+      <c r="F10">
+        <v>-0.05800720886751685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09933142253433634</v>
+        <v>0.08777889842152914</v>
       </c>
       <c r="C11">
-        <v>0.05133558772380157</v>
+        <v>0.01114848873230789</v>
       </c>
       <c r="D11">
-        <v>0.05913409624642811</v>
+        <v>0.1174527736179144</v>
       </c>
       <c r="E11">
-        <v>-0.04527917460326224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04761533962031361</v>
+      </c>
+      <c r="F11">
+        <v>0.0186968839994146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1081508484718263</v>
+        <v>0.09246681799059885</v>
       </c>
       <c r="C12">
-        <v>0.06045312373579146</v>
+        <v>0.00858451547657095</v>
       </c>
       <c r="D12">
-        <v>0.06911113264269586</v>
+        <v>0.1287023993665194</v>
       </c>
       <c r="E12">
-        <v>-0.04373902768032738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04843959571910782</v>
+      </c>
+      <c r="F12">
+        <v>0.01707920573460901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04100610098390557</v>
+        <v>0.04358103054732246</v>
       </c>
       <c r="C13">
-        <v>0.026281091232916</v>
+        <v>0.003926729649259874</v>
       </c>
       <c r="D13">
-        <v>-0.01733959204387021</v>
+        <v>0.04828841424278506</v>
       </c>
       <c r="E13">
-        <v>0.005383646125675217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01309981854738728</v>
+      </c>
+      <c r="F13">
+        <v>0.006885072905312544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02594080759711534</v>
+        <v>0.02266251629455843</v>
       </c>
       <c r="C14">
-        <v>0.004463149773825119</v>
+        <v>0.014036160134194</v>
       </c>
       <c r="D14">
-        <v>0.004671503163631948</v>
+        <v>0.03240762137453273</v>
       </c>
       <c r="E14">
-        <v>-0.003805825909883926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01726991980872404</v>
+      </c>
+      <c r="F14">
+        <v>0.01795872376856898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0292182705714564</v>
+        <v>0.03115452646652444</v>
       </c>
       <c r="C15">
-        <v>0.02663697848047285</v>
+        <v>0.005179017156820894</v>
       </c>
       <c r="D15">
-        <v>0.001230170978603604</v>
+        <v>0.04494906040853279</v>
       </c>
       <c r="E15">
-        <v>-0.01144817911419168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.007416817837442415</v>
+      </c>
+      <c r="F15">
+        <v>0.02750009954879462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.1059219274753816</v>
+        <v>0.07308127583682641</v>
       </c>
       <c r="C16">
-        <v>0.04088856720154926</v>
+        <v>0.002305794231557524</v>
       </c>
       <c r="D16">
-        <v>0.06722548646638171</v>
+        <v>0.1254015191087278</v>
       </c>
       <c r="E16">
-        <v>-0.05567989080409706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06344313485669749</v>
+      </c>
+      <c r="F16">
+        <v>0.02166403811617686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02606043280815617</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.00376873100853006</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02099782866047656</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.004615526518766332</v>
+      </c>
+      <c r="F18">
+        <v>-0.0146675093820586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05815416589658965</v>
+        <v>0.05998847542389246</v>
       </c>
       <c r="C20">
-        <v>0.01799757951937992</v>
+        <v>0.0005593946801276525</v>
       </c>
       <c r="D20">
-        <v>0.04529023578340115</v>
+        <v>0.07665308081419864</v>
       </c>
       <c r="E20">
-        <v>0.003420011213752482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05610936795848491</v>
+      </c>
+      <c r="F20">
+        <v>0.02343639101193125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02066021431039314</v>
+        <v>0.0390401377865744</v>
       </c>
       <c r="C21">
-        <v>-0.004847495023142325</v>
+        <v>0.006489841253888966</v>
       </c>
       <c r="D21">
-        <v>0.001294855025008091</v>
+        <v>0.03548184526001099</v>
       </c>
       <c r="E21">
-        <v>0.03093367101183513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.00820776490599338</v>
+      </c>
+      <c r="F21">
+        <v>-0.02242748137985524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03639053473208857</v>
+        <v>0.04485506811942776</v>
       </c>
       <c r="C22">
-        <v>-0.03646870248131938</v>
+        <v>0.0004632814245461044</v>
       </c>
       <c r="D22">
-        <v>-0.03425003587022582</v>
+        <v>0.002812157025155633</v>
       </c>
       <c r="E22">
-        <v>-0.04522162488210982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02631832102966682</v>
+      </c>
+      <c r="F22">
+        <v>-0.01433348946928135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03650044069837187</v>
+        <v>0.04488878621778142</v>
       </c>
       <c r="C23">
-        <v>-0.0363917340140078</v>
+        <v>0.0004837914385764161</v>
       </c>
       <c r="D23">
-        <v>-0.03376073812944712</v>
+        <v>0.002904902568242888</v>
       </c>
       <c r="E23">
-        <v>-0.04701552185910592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0266280169871344</v>
+      </c>
+      <c r="F23">
+        <v>-0.01380346848298194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.1049403278686571</v>
+        <v>0.0795933358087216</v>
       </c>
       <c r="C24">
-        <v>0.04297204568569538</v>
+        <v>0.00283027222550104</v>
       </c>
       <c r="D24">
-        <v>0.06298322603038381</v>
+        <v>0.1204649076187366</v>
       </c>
       <c r="E24">
-        <v>-0.03839205497305286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05101162224832734</v>
+      </c>
+      <c r="F24">
+        <v>0.02165686896757228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.1095155594891243</v>
+        <v>0.08508578627205919</v>
       </c>
       <c r="C25">
-        <v>0.03752846110033292</v>
+        <v>0.005047183252306721</v>
       </c>
       <c r="D25">
-        <v>0.05900006972417059</v>
+        <v>0.1092746445291679</v>
       </c>
       <c r="E25">
-        <v>-0.04835804734438878</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03363370350156922</v>
+      </c>
+      <c r="F25">
+        <v>0.02461429556765193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04704501862864745</v>
+        <v>0.05573403150381175</v>
       </c>
       <c r="C26">
-        <v>-0.01460592687780862</v>
+        <v>0.01434025048730306</v>
       </c>
       <c r="D26">
-        <v>0.0218471291091512</v>
+        <v>0.04227424546848426</v>
       </c>
       <c r="E26">
-        <v>-0.01123491874250126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02584577722567395</v>
+      </c>
+      <c r="F26">
+        <v>-0.01149844603554522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.05695800040764398</v>
+        <v>0.1427543592647306</v>
       </c>
       <c r="C28">
-        <v>-0.260947551068169</v>
+        <v>0.01779216017239648</v>
       </c>
       <c r="D28">
-        <v>-0.1716385437494994</v>
+        <v>-0.265446015504793</v>
       </c>
       <c r="E28">
-        <v>-0.05260024918246584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.06822869253114965</v>
+      </c>
+      <c r="F28">
+        <v>0.01900890099188628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03115574832252661</v>
+        <v>0.02667020724045194</v>
       </c>
       <c r="C29">
-        <v>0.008629230034595047</v>
+        <v>0.008183472844654776</v>
       </c>
       <c r="D29">
-        <v>-0.003574288894930807</v>
+        <v>0.03213037095313051</v>
       </c>
       <c r="E29">
-        <v>-0.00811270743950681</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01118988126402181</v>
+      </c>
+      <c r="F29">
+        <v>-0.01191769168423157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1222124125389951</v>
+        <v>0.06146453190753164</v>
       </c>
       <c r="C30">
-        <v>0.06617617806144116</v>
+        <v>0.004501623510932152</v>
       </c>
       <c r="D30">
-        <v>0.03234776102656597</v>
+        <v>0.08544334332951023</v>
       </c>
       <c r="E30">
-        <v>-0.006630053854883061</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02341951461948936</v>
+      </c>
+      <c r="F30">
+        <v>0.0911408816811374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03586794793174101</v>
+        <v>0.04907113570094206</v>
       </c>
       <c r="C31">
-        <v>0.01382475320809759</v>
+        <v>0.01507874743150738</v>
       </c>
       <c r="D31">
-        <v>0.02697622801283736</v>
+        <v>0.02604761571557981</v>
       </c>
       <c r="E31">
-        <v>-0.01958899525961025</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02711612514234684</v>
+      </c>
+      <c r="F31">
+        <v>-0.005807450568790468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.06237244307087668</v>
+        <v>0.04840589716959726</v>
       </c>
       <c r="C32">
-        <v>-0.0008484305428833552</v>
+        <v>-0.0009751901082923867</v>
       </c>
       <c r="D32">
-        <v>0.03186562248200306</v>
+        <v>0.0338641104438839</v>
       </c>
       <c r="E32">
-        <v>0.004991162951256002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.02956532449383868</v>
+      </c>
+      <c r="F32">
+        <v>0.00514282644657463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1108432344664063</v>
+        <v>0.08947375294234849</v>
       </c>
       <c r="C33">
-        <v>0.04875063188496494</v>
+        <v>0.008395257483898839</v>
       </c>
       <c r="D33">
-        <v>0.03222652934265378</v>
+        <v>0.09804793911654507</v>
       </c>
       <c r="E33">
-        <v>-0.07010959987441381</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04616662379566514</v>
+      </c>
+      <c r="F33">
+        <v>0.03767625318562422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.09206753655792953</v>
+        <v>0.06780084927027152</v>
       </c>
       <c r="C34">
-        <v>0.02785122863779456</v>
+        <v>0.0116561016768468</v>
       </c>
       <c r="D34">
-        <v>0.05208336338020383</v>
+        <v>0.1049382370763255</v>
       </c>
       <c r="E34">
-        <v>-0.04276494711726662</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03627136398683477</v>
+      </c>
+      <c r="F34">
+        <v>0.03427243433668987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01445168720946647</v>
+        <v>0.02447893156040733</v>
       </c>
       <c r="C35">
-        <v>0.01196649845073539</v>
+        <v>0.002380109500936176</v>
       </c>
       <c r="D35">
-        <v>-0.005349194909651019</v>
+        <v>0.01253979291889504</v>
       </c>
       <c r="E35">
-        <v>-0.003822608323644058</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01102409799185403</v>
+      </c>
+      <c r="F35">
+        <v>0.006298344024226924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02761891622552676</v>
+        <v>0.02484772151492973</v>
       </c>
       <c r="C36">
-        <v>0.01692041756027902</v>
+        <v>0.007369173565897395</v>
       </c>
       <c r="D36">
-        <v>0.0005054145534856134</v>
+        <v>0.03929124543916897</v>
       </c>
       <c r="E36">
-        <v>-5.99383758015094e-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01689058434106255</v>
+      </c>
+      <c r="F36">
+        <v>0.01348676264439223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.005708898427296734</v>
+        <v>0.001504870644763285</v>
       </c>
       <c r="C38">
-        <v>-9.923735096302164e-06</v>
+        <v>0.0002230988207840695</v>
       </c>
       <c r="D38">
-        <v>-0.0004804350935973599</v>
+        <v>0.000712574215883502</v>
       </c>
       <c r="E38">
-        <v>0.0004300738169465931</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001121489271180744</v>
+      </c>
+      <c r="F38">
+        <v>-0.001101978027620828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1681138281795628</v>
+        <v>0.1071222980601889</v>
       </c>
       <c r="C39">
-        <v>0.09631845405001642</v>
+        <v>0.01656193675312456</v>
       </c>
       <c r="D39">
-        <v>0.0963085698439549</v>
+        <v>0.1534759233142642</v>
       </c>
       <c r="E39">
-        <v>-0.06583382122809892</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06046554834883855</v>
+      </c>
+      <c r="F39">
+        <v>0.02228251293804444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009994416098599379</v>
+        <v>0.03782913541600848</v>
       </c>
       <c r="C40">
-        <v>-0.001396687213576562</v>
+        <v>0.007084342978999627</v>
       </c>
       <c r="D40">
-        <v>0.009091393923066437</v>
+        <v>0.03292759468653213</v>
       </c>
       <c r="E40">
-        <v>0.01687398003242487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.001550556321143067</v>
+      </c>
+      <c r="F40">
+        <v>-0.01524095604296864</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02019330540922311</v>
+        <v>0.02657301967676413</v>
       </c>
       <c r="C41">
-        <v>-0.02334118982898242</v>
+        <v>0.006506128889721885</v>
       </c>
       <c r="D41">
-        <v>0.01679842245348808</v>
+        <v>0.01120806426666465</v>
       </c>
       <c r="E41">
-        <v>-0.009519081090186697</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0124182694557329</v>
+      </c>
+      <c r="F41">
+        <v>-0.009208446014532875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02825867939051845</v>
+        <v>0.0400958780785662</v>
       </c>
       <c r="C43">
-        <v>-0.01731922211388598</v>
+        <v>0.006604011224278933</v>
       </c>
       <c r="D43">
-        <v>0.02947315799977985</v>
+        <v>0.02061467944302292</v>
       </c>
       <c r="E43">
-        <v>-0.02849489026404868</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02378740762381653</v>
+      </c>
+      <c r="F43">
+        <v>-0.01404455824077479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.136871773510495</v>
+        <v>0.07675001289501297</v>
       </c>
       <c r="C44">
-        <v>0.06643771448678396</v>
+        <v>0.020835961968533</v>
       </c>
       <c r="D44">
-        <v>0.03818691817715938</v>
+        <v>0.09860154759631605</v>
       </c>
       <c r="E44">
-        <v>-0.03092838359023723</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07405040093524476</v>
+      </c>
+      <c r="F44">
+        <v>0.1690312235325433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01341344748664014</v>
+        <v>0.02354159973392723</v>
       </c>
       <c r="C46">
-        <v>-0.01679799785172755</v>
+        <v>0.003822782633048883</v>
       </c>
       <c r="D46">
-        <v>0.006501217659367575</v>
+        <v>0.01146830601781876</v>
       </c>
       <c r="E46">
-        <v>-0.02718844127864649</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02243424472413705</v>
+      </c>
+      <c r="F46">
+        <v>0.0007036691692971183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04589844430890267</v>
+        <v>0.05088495962012755</v>
       </c>
       <c r="C47">
-        <v>-0.004372493945949212</v>
+        <v>0.003291699250378882</v>
       </c>
       <c r="D47">
-        <v>0.01523150594923298</v>
+        <v>0.01332431238845272</v>
       </c>
       <c r="E47">
-        <v>-0.00739241018447901</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02240404235663508</v>
+      </c>
+      <c r="F47">
+        <v>-0.03997050379800531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04615191272429434</v>
+        <v>0.04786450731279394</v>
       </c>
       <c r="C48">
-        <v>0.01907255006402261</v>
+        <v>0.002541985227065619</v>
       </c>
       <c r="D48">
-        <v>-0.0009474875431688275</v>
+        <v>0.05081360333283153</v>
       </c>
       <c r="E48">
-        <v>-0.009100165748170456</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.005135489119809479</v>
+      </c>
+      <c r="F48">
+        <v>0.004303563103764549</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2190876625956736</v>
+        <v>0.2026463219176074</v>
       </c>
       <c r="C49">
-        <v>-0.05367427247288799</v>
+        <v>0.018073683723734</v>
       </c>
       <c r="D49">
-        <v>0.04129332137896576</v>
+        <v>-0.01191866642205001</v>
       </c>
       <c r="E49">
-        <v>0.008614234521226626</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.03292296928221104</v>
+      </c>
+      <c r="F49">
+        <v>0.02977356159313929</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04328153033820255</v>
+        <v>0.048863040638812</v>
       </c>
       <c r="C50">
-        <v>0.01071340360109232</v>
+        <v>0.01113189019878592</v>
       </c>
       <c r="D50">
-        <v>0.03577431896324196</v>
+        <v>0.02562687084272861</v>
       </c>
       <c r="E50">
-        <v>-0.01106077206178674</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02938675127943607</v>
+      </c>
+      <c r="F50">
+        <v>0.006563264025594481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.008148896658800579</v>
+        <v>0.002241195641637763</v>
       </c>
       <c r="C51">
-        <v>-0.01331295141204928</v>
+        <v>0.0005676062558114347</v>
       </c>
       <c r="D51">
-        <v>-0.008189852089346802</v>
+        <v>-0.002441220690590608</v>
       </c>
       <c r="E51">
-        <v>-0.01472259370791715</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-3.562538265336744e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.003878284841246929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1392783439850109</v>
+        <v>0.1447543092692746</v>
       </c>
       <c r="C52">
-        <v>0.06813749906389446</v>
+        <v>0.01411758234063233</v>
       </c>
       <c r="D52">
-        <v>0.0141635887969209</v>
+        <v>0.04869951513873475</v>
       </c>
       <c r="E52">
-        <v>0.0124415676331383</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02415730625495327</v>
+      </c>
+      <c r="F52">
+        <v>0.04006971229927064</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1551395627566461</v>
+        <v>0.1734547746665869</v>
       </c>
       <c r="C53">
-        <v>-0.009868686711686888</v>
+        <v>0.01723205086740206</v>
       </c>
       <c r="D53">
-        <v>-0.01380234158217461</v>
+        <v>0.00778931761839921</v>
       </c>
       <c r="E53">
-        <v>0.01398490199877358</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.035205790985598</v>
+      </c>
+      <c r="F53">
+        <v>0.07116299989473907</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05038547676642654</v>
+        <v>0.02207847255217886</v>
       </c>
       <c r="C54">
-        <v>0.0005208378742799635</v>
+        <v>0.01246998297157853</v>
       </c>
       <c r="D54">
-        <v>0.01057450017751943</v>
+        <v>0.03254319166803951</v>
       </c>
       <c r="E54">
-        <v>-0.008304919604143325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01536958615069483</v>
+      </c>
+      <c r="F54">
+        <v>-0.003645979931425377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08814380922591884</v>
+        <v>0.1143444508953698</v>
       </c>
       <c r="C55">
-        <v>0.02163559868835071</v>
+        <v>0.0156766422783532</v>
       </c>
       <c r="D55">
-        <v>-0.01285008132445009</v>
+        <v>0.01036860704111248</v>
       </c>
       <c r="E55">
-        <v>-0.03027357880964978</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03106749655961158</v>
+      </c>
+      <c r="F55">
+        <v>0.0456819470675362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1574117599946067</v>
+        <v>0.1773594797698568</v>
       </c>
       <c r="C56">
-        <v>0.0007775389940270953</v>
+        <v>0.01453340667183011</v>
       </c>
       <c r="D56">
-        <v>0.01205858664505578</v>
+        <v>0.005498634065071431</v>
       </c>
       <c r="E56">
-        <v>-0.01178631908892419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04092956934960077</v>
+      </c>
+      <c r="F56">
+        <v>0.049008677878425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03872240677396842</v>
+        <v>0.04628753952894106</v>
       </c>
       <c r="C58">
-        <v>0.004824781162225173</v>
+        <v>0.001069280339723467</v>
       </c>
       <c r="D58">
-        <v>0.01365361605009359</v>
+        <v>0.06838416681993897</v>
       </c>
       <c r="E58">
-        <v>0.02792214436955292</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02416279508047439</v>
+      </c>
+      <c r="F58">
+        <v>-0.04258269569401609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1265497364788005</v>
+        <v>0.1717368355977145</v>
       </c>
       <c r="C59">
-        <v>-0.2424224721111455</v>
+        <v>0.01831321787323268</v>
       </c>
       <c r="D59">
-        <v>-0.1516974870959144</v>
+        <v>-0.2223479501356252</v>
       </c>
       <c r="E59">
-        <v>-0.05937039032761356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04682998312531293</v>
+      </c>
+      <c r="F59">
+        <v>-0.03153214200861454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2772921715472126</v>
+        <v>0.2345432428131918</v>
       </c>
       <c r="C60">
-        <v>0.04045357062398648</v>
+        <v>-0.003838922408235819</v>
       </c>
       <c r="D60">
-        <v>0.02646088330567492</v>
+        <v>0.0426173706989698</v>
       </c>
       <c r="E60">
-        <v>0.06795908617621213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01106485951823968</v>
+      </c>
+      <c r="F60">
+        <v>-0.02160945570458655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1260553443761488</v>
+        <v>0.08330494288289443</v>
       </c>
       <c r="C61">
-        <v>0.0649698994058704</v>
+        <v>0.01240949819295264</v>
       </c>
       <c r="D61">
-        <v>0.04452237556515011</v>
+        <v>0.1162576364063896</v>
       </c>
       <c r="E61">
-        <v>-0.05298564271332531</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03971274011541543</v>
+      </c>
+      <c r="F61">
+        <v>0.008655310222701185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1657350207465298</v>
+        <v>0.1694869700070749</v>
       </c>
       <c r="C62">
-        <v>0.0105841975459582</v>
+        <v>0.01813183144912979</v>
       </c>
       <c r="D62">
-        <v>0.01006951009373955</v>
+        <v>0.01075867046720962</v>
       </c>
       <c r="E62">
-        <v>0.003037865271627099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03773039672688507</v>
+      </c>
+      <c r="F62">
+        <v>0.03148273948500212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0546872788275981</v>
+        <v>0.0432141519965455</v>
       </c>
       <c r="C63">
-        <v>0.024030539151581</v>
+        <v>0.002541323291570421</v>
       </c>
       <c r="D63">
-        <v>0.007533236667195185</v>
+        <v>0.05607051953202916</v>
       </c>
       <c r="E63">
-        <v>-0.02487554279600375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02082414093525848</v>
+      </c>
+      <c r="F63">
+        <v>0.006490993524794936</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1004365654826658</v>
+        <v>0.1104707347110659</v>
       </c>
       <c r="C64">
-        <v>0.01948344446366241</v>
+        <v>0.01127902363065012</v>
       </c>
       <c r="D64">
-        <v>0.02512419944613114</v>
+        <v>0.04206691265344939</v>
       </c>
       <c r="E64">
-        <v>-0.003877120386403364</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02133117353147628</v>
+      </c>
+      <c r="F64">
+        <v>0.02838500142362743</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1165387500773318</v>
+        <v>0.147508096365026</v>
       </c>
       <c r="C65">
-        <v>-0.004587853036506322</v>
+        <v>0.03147320026206867</v>
       </c>
       <c r="D65">
-        <v>-0.01223132818837696</v>
+        <v>-0.04211080389281881</v>
       </c>
       <c r="E65">
-        <v>0.005454805565271834</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.002033578581298482</v>
+      </c>
+      <c r="F65">
+        <v>0.04628545365758912</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.195691487216693</v>
+        <v>0.1276937049128898</v>
       </c>
       <c r="C66">
-        <v>0.093696814944048</v>
+        <v>0.0144261412162741</v>
       </c>
       <c r="D66">
-        <v>0.1077078426700144</v>
+        <v>0.1430605594707234</v>
       </c>
       <c r="E66">
-        <v>-0.07090821987904196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06801158799007248</v>
+      </c>
+      <c r="F66">
+        <v>0.02713760524127349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07567841483927515</v>
+        <v>0.06343158583711661</v>
       </c>
       <c r="C67">
-        <v>0.02152873183346396</v>
+        <v>0.002838976401021209</v>
       </c>
       <c r="D67">
-        <v>-0.001121918547012907</v>
+        <v>0.05577869350937014</v>
       </c>
       <c r="E67">
-        <v>-0.0827624985667485</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01679661957716487</v>
+      </c>
+      <c r="F67">
+        <v>-0.0410972358813971</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.05612913309318933</v>
+        <v>0.1172672753818871</v>
       </c>
       <c r="C68">
-        <v>-0.2284928185021154</v>
+        <v>0.02778665544101359</v>
       </c>
       <c r="D68">
-        <v>-0.1469010013553293</v>
+        <v>-0.2600737582378568</v>
       </c>
       <c r="E68">
-        <v>-0.04236951843785035</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08515996113068355</v>
+      </c>
+      <c r="F68">
+        <v>0.01917719948087804</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0348414983266328</v>
+        <v>0.03921197259814746</v>
       </c>
       <c r="C69">
-        <v>0.000781821399870174</v>
+        <v>0.0008855883735732126</v>
       </c>
       <c r="D69">
-        <v>-0.01524773711862204</v>
+        <v>0.008309041640465625</v>
       </c>
       <c r="E69">
-        <v>-0.02771346855671958</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02390178762562253</v>
+      </c>
+      <c r="F69">
+        <v>-0.00635305564815793</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03268397689895807</v>
+        <v>0.06279139633947912</v>
       </c>
       <c r="C70">
-        <v>0.001895368537836766</v>
+        <v>-0.0287706755516837</v>
       </c>
       <c r="D70">
-        <v>-0.02661328128106322</v>
+        <v>0.02889840101883079</v>
       </c>
       <c r="E70">
-        <v>-0.0412459349682173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.04957419463678266</v>
+      </c>
+      <c r="F70">
+        <v>-0.2323409420614588</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.0644692016001769</v>
+        <v>0.1364928287294705</v>
       </c>
       <c r="C71">
-        <v>-0.2494848158514172</v>
+        <v>0.03246749844142058</v>
       </c>
       <c r="D71">
-        <v>-0.1664478913211767</v>
+        <v>-0.2745652944985402</v>
       </c>
       <c r="E71">
-        <v>-0.05556438178199343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09480641008154088</v>
+      </c>
+      <c r="F71">
+        <v>0.02403797134705674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1299485652288914</v>
+        <v>0.1417327699434086</v>
       </c>
       <c r="C72">
-        <v>-0.04034421232367745</v>
+        <v>0.0250509080060895</v>
       </c>
       <c r="D72">
-        <v>-0.002224493520356079</v>
+        <v>0.001121726059117338</v>
       </c>
       <c r="E72">
-        <v>-0.01469623628258795</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04222772392415584</v>
+      </c>
+      <c r="F72">
+        <v>0.03039405919802027</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2139414420453889</v>
+        <v>0.2013337832750457</v>
       </c>
       <c r="C73">
-        <v>-0.03958834239937934</v>
+        <v>0.01200325409845327</v>
       </c>
       <c r="D73">
-        <v>0.001135136308070936</v>
+        <v>0.01551603977981483</v>
       </c>
       <c r="E73">
-        <v>-0.03088730039840641</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06642867395159413</v>
+      </c>
+      <c r="F73">
+        <v>0.02584756297318357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1134848278982875</v>
+        <v>0.09432851507443735</v>
       </c>
       <c r="C74">
-        <v>0.005294364665713746</v>
+        <v>0.01240616955962055</v>
       </c>
       <c r="D74">
-        <v>0.03024183837786954</v>
+        <v>0.0194197924282842</v>
       </c>
       <c r="E74">
-        <v>-0.00648524016996613</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04878568057061594</v>
+      </c>
+      <c r="F74">
+        <v>0.05177955817905473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.136383402498636</v>
+        <v>0.1288436741387719</v>
       </c>
       <c r="C75">
-        <v>0.01361000565187792</v>
+        <v>0.02677457306312854</v>
       </c>
       <c r="D75">
-        <v>0.03868515820044371</v>
+        <v>0.03286440953557809</v>
       </c>
       <c r="E75">
-        <v>-0.008927782626274005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06103349761119776</v>
+      </c>
+      <c r="F75">
+        <v>0.01506391790984739</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01056400882354715</v>
+        <v>0.002679766865988678</v>
       </c>
       <c r="C76">
-        <v>-0.01092333719842663</v>
+        <v>0.0006808394155212978</v>
       </c>
       <c r="D76">
-        <v>-0.006486625805067276</v>
+        <v>-0.001685636911340891</v>
       </c>
       <c r="E76">
-        <v>-0.01053534629952766</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0004871457773251741</v>
+      </c>
+      <c r="F76">
+        <v>0.003579630158674943</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.09098495729247709</v>
+        <v>0.07998364417651152</v>
       </c>
       <c r="C77">
-        <v>0.08047361258896847</v>
+        <v>0.008464768633584993</v>
       </c>
       <c r="D77">
-        <v>0.06307190144429156</v>
+        <v>0.1197152812064922</v>
       </c>
       <c r="E77">
-        <v>0.03182472433228667</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04047169038063109</v>
+      </c>
+      <c r="F77">
+        <v>0.03259332666485556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1231457381796691</v>
+        <v>0.1033975878555171</v>
       </c>
       <c r="C78">
-        <v>-0.02092436324403665</v>
+        <v>0.03971674008263339</v>
       </c>
       <c r="D78">
-        <v>0.133515608328255</v>
+        <v>0.1152976492584085</v>
       </c>
       <c r="E78">
-        <v>-0.2008154834482057</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07893207607249379</v>
+      </c>
+      <c r="F78">
+        <v>0.05539492005142003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1442107173599484</v>
+        <v>0.1639797705110173</v>
       </c>
       <c r="C79">
-        <v>-0.002655040515355598</v>
+        <v>0.02091719071989239</v>
       </c>
       <c r="D79">
-        <v>0.04931317658177711</v>
+        <v>0.01872779253574934</v>
       </c>
       <c r="E79">
-        <v>0.01309673650296487</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05010584059706861</v>
+      </c>
+      <c r="F79">
+        <v>0.007188416348756563</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.09155566959875773</v>
+        <v>0.08108436813844068</v>
       </c>
       <c r="C80">
-        <v>0.05635509693824185</v>
+        <v>-0.001048955882891794</v>
       </c>
       <c r="D80">
-        <v>0.0169621818009311</v>
+        <v>0.05802112600095545</v>
       </c>
       <c r="E80">
-        <v>-0.05562529916840957</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03494857882014663</v>
+      </c>
+      <c r="F80">
+        <v>-0.02954162588143929</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.157832309317583</v>
+        <v>0.1230036180838757</v>
       </c>
       <c r="C81">
-        <v>0.02496910771924467</v>
+        <v>0.03079774244507584</v>
       </c>
       <c r="D81">
-        <v>0.05364205021153707</v>
+        <v>0.01657060021037826</v>
       </c>
       <c r="E81">
-        <v>-0.02438957976087976</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06101251895495617</v>
+      </c>
+      <c r="F81">
+        <v>0.01165641203595612</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1750955958161313</v>
+        <v>0.1645330558690995</v>
       </c>
       <c r="C82">
-        <v>0.0391820627972299</v>
+        <v>0.022977228081205</v>
       </c>
       <c r="D82">
-        <v>0.01867046919970844</v>
+        <v>0.008060698306039314</v>
       </c>
       <c r="E82">
-        <v>-0.01177967226270936</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.03397926990445201</v>
+      </c>
+      <c r="F82">
+        <v>0.07302972036095355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08456718191233797</v>
+        <v>0.06185484422688898</v>
       </c>
       <c r="C83">
-        <v>0.022130268967296</v>
+        <v>0.003174780804776714</v>
       </c>
       <c r="D83">
-        <v>0.004124503150526266</v>
+        <v>0.04908328643897544</v>
       </c>
       <c r="E83">
-        <v>0.06556703379912297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005128066306684951</v>
+      </c>
+      <c r="F83">
+        <v>-0.04006958334083845</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07145313365231186</v>
+        <v>0.0583848066615491</v>
       </c>
       <c r="C84">
-        <v>0.01273974570295141</v>
+        <v>0.01084074903750843</v>
       </c>
       <c r="D84">
-        <v>0.004541460214651573</v>
+        <v>0.06658547897437223</v>
       </c>
       <c r="E84">
-        <v>-0.0002926106854984362</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.006262896622492686</v>
+      </c>
+      <c r="F84">
+        <v>0.00731063321923697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1238036971888097</v>
+        <v>0.1381180641531562</v>
       </c>
       <c r="C85">
-        <v>-0.004848471275711294</v>
+        <v>0.02659798983472333</v>
       </c>
       <c r="D85">
-        <v>0.01255609288428982</v>
+        <v>0.01262337366849263</v>
       </c>
       <c r="E85">
-        <v>0.006584061675672957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04140477451822545</v>
+      </c>
+      <c r="F85">
+        <v>0.0461519247210095</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1087505414445905</v>
+        <v>0.09615074016174931</v>
       </c>
       <c r="C86">
-        <v>-0.2065477397828551</v>
+        <v>-0.005494844483079132</v>
       </c>
       <c r="D86">
-        <v>0.2258650831737356</v>
+        <v>0.03417388801939743</v>
       </c>
       <c r="E86">
-        <v>0.8911680023836419</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1605664208376095</v>
+      </c>
+      <c r="F86">
+        <v>-0.9003102559785171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.114316280772979</v>
+        <v>0.0954355818705612</v>
       </c>
       <c r="C87">
-        <v>0.1023430829383408</v>
+        <v>0.02173358486157913</v>
       </c>
       <c r="D87">
-        <v>-0.0182316820252271</v>
+        <v>0.09361158898376276</v>
       </c>
       <c r="E87">
-        <v>0.01659997424971873</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05326929528828764</v>
+      </c>
+      <c r="F87">
+        <v>0.06662328334985436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05050652511536997</v>
+        <v>0.06104470008403231</v>
       </c>
       <c r="C88">
-        <v>0.01115039375728532</v>
+        <v>0.002387833494772704</v>
       </c>
       <c r="D88">
-        <v>0.03091958172992119</v>
+        <v>0.05066863743648162</v>
       </c>
       <c r="E88">
-        <v>-0.04173258340680859</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02588164031118123</v>
+      </c>
+      <c r="F88">
+        <v>0.00971928482681981</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.09747255673769836</v>
+        <v>0.1348789959080603</v>
       </c>
       <c r="C89">
-        <v>-0.3124606355212643</v>
+        <v>0.01010032759653427</v>
       </c>
       <c r="D89">
-        <v>-0.2049964503703036</v>
+        <v>-0.2519016421922396</v>
       </c>
       <c r="E89">
-        <v>-0.02613596838103019</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.08902531535445689</v>
+      </c>
+      <c r="F89">
+        <v>0.005510208708734764</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.06998910730223801</v>
+        <v>0.1485945238803246</v>
       </c>
       <c r="C90">
-        <v>-0.2574172413277475</v>
+        <v>0.02812869609074706</v>
       </c>
       <c r="D90">
-        <v>-0.1658839231900658</v>
+        <v>-0.2664530248044692</v>
       </c>
       <c r="E90">
-        <v>-0.03761880780921717</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1093181319008033</v>
+      </c>
+      <c r="F90">
+        <v>0.009266464981039682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.09494364414859294</v>
+        <v>0.1197642379792977</v>
       </c>
       <c r="C91">
-        <v>0.004479232230128872</v>
+        <v>0.01732806558612862</v>
       </c>
       <c r="D91">
-        <v>0.02471795873742455</v>
+        <v>-0.0103628587086588</v>
       </c>
       <c r="E91">
-        <v>0.009463715557388667</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05777268017526902</v>
+      </c>
+      <c r="F91">
+        <v>-0.01096481945694112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.0875830686680223</v>
+        <v>0.1485560328791303</v>
       </c>
       <c r="C92">
-        <v>-0.2726876546465263</v>
+        <v>0.02011186930676599</v>
       </c>
       <c r="D92">
-        <v>-0.1996520640788572</v>
+        <v>-0.2918599782647958</v>
       </c>
       <c r="E92">
-        <v>-0.02138892341196676</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1039138248530815</v>
+      </c>
+      <c r="F92">
+        <v>0.001926577893209432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.07430115658983182</v>
+        <v>0.1515695762130972</v>
       </c>
       <c r="C93">
-        <v>-0.2841790025194222</v>
+        <v>0.02418830666517121</v>
       </c>
       <c r="D93">
-        <v>-0.1840263483322072</v>
+        <v>-0.2654562484942738</v>
       </c>
       <c r="E93">
-        <v>-0.03459638686862612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07608535241272933</v>
+      </c>
+      <c r="F93">
+        <v>0.009568092851049793</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1592179125100656</v>
+        <v>0.1318671296181022</v>
       </c>
       <c r="C94">
-        <v>0.008628722204429567</v>
+        <v>0.02389471402072894</v>
       </c>
       <c r="D94">
-        <v>0.03651599423963254</v>
+        <v>0.04395041054922023</v>
       </c>
       <c r="E94">
-        <v>-0.05550803913757964</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06120388407360877</v>
+      </c>
+      <c r="F94">
+        <v>0.0333369594335313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1265888025477536</v>
+        <v>0.1255993286101448</v>
       </c>
       <c r="C95">
-        <v>0.0178624649648497</v>
+        <v>0.004531098473482368</v>
       </c>
       <c r="D95">
-        <v>0.04401051678999566</v>
+        <v>0.09324358840416694</v>
       </c>
       <c r="E95">
-        <v>-0.03946546366168661</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04631955351058956</v>
+      </c>
+      <c r="F95">
+        <v>-0.01152952337416609</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01577349858078289</v>
+        <v>0.100299174705709</v>
       </c>
       <c r="C96">
-        <v>0.0007963456452923546</v>
+        <v>-0.9885561236293374</v>
       </c>
       <c r="D96">
-        <v>0.00142645096352334</v>
+        <v>-0.03733098441451312</v>
       </c>
       <c r="E96">
-        <v>-0.0002085288039087893</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.0584785811439003</v>
+      </c>
+      <c r="F96">
+        <v>0.04182698897152954</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1776382576371534</v>
+        <v>0.1897523843029414</v>
       </c>
       <c r="C97">
-        <v>-0.03083417992881949</v>
+        <v>-0.009550135873071096</v>
       </c>
       <c r="D97">
-        <v>0.05282225187267698</v>
+        <v>-0.01593073800725879</v>
       </c>
       <c r="E97">
-        <v>-0.02368309588583683</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.008393146316563634</v>
+      </c>
+      <c r="F97">
+        <v>-0.09613936885605021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2202121303587871</v>
+        <v>0.2058412449840931</v>
       </c>
       <c r="C98">
-        <v>-0.01973844403596139</v>
+        <v>0.007378564227692093</v>
       </c>
       <c r="D98">
-        <v>-0.09536372810595983</v>
+        <v>0.008234629319865246</v>
       </c>
       <c r="E98">
-        <v>0.1259896221427106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09624906007421355</v>
+      </c>
+      <c r="F98">
+        <v>-0.09604500701534324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04990455195937205</v>
+        <v>0.05577311204032048</v>
       </c>
       <c r="C99">
-        <v>-0.01674715459614883</v>
+        <v>-0.004311806148626644</v>
       </c>
       <c r="D99">
-        <v>0.01447226208460224</v>
+        <v>0.03690437142283214</v>
       </c>
       <c r="E99">
-        <v>-0.05051617426102308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02415642379941983</v>
+      </c>
+      <c r="F99">
+        <v>-0.0007178174822716162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1275854136089064</v>
+        <v>0.1243772554640289</v>
       </c>
       <c r="C100">
-        <v>0.5153325266719028</v>
+        <v>-0.05277156271316287</v>
       </c>
       <c r="D100">
-        <v>-0.7630070273404754</v>
+        <v>0.3441632145126153</v>
       </c>
       <c r="E100">
-        <v>0.2345944358944206</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8944171141046601</v>
+      </c>
+      <c r="F100">
+        <v>-0.08469277626334699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03110057021079518</v>
+        <v>0.02659183090358782</v>
       </c>
       <c r="C101">
-        <v>0.008709399706413108</v>
+        <v>0.008191338989568123</v>
       </c>
       <c r="D101">
-        <v>-0.003429529698440251</v>
+        <v>0.03182584597527153</v>
       </c>
       <c r="E101">
-        <v>-0.009203071264628744</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01058653236498823</v>
+      </c>
+      <c r="F101">
+        <v>-0.01343147668002698</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
